--- a/attendance-files/LAB/LAB (E) Attendance Sheet.xlsx
+++ b/attendance-files/LAB/LAB (E) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="180">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1647,11 +1647,11 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1674,9 +1674,15 @@
       <c r="M7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
+      <c r="N7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q7" s="30"/>
       <c r="R7" s="30"/>
       <c r="S7" s="30"/>
@@ -1705,11 +1711,11 @@
       </c>
       <c r="E8" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>20</v>
@@ -1732,9 +1738,15 @@
       <c r="M8" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
+      <c r="N8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q8" s="35"/>
       <c r="R8" s="35"/>
       <c r="S8" s="35"/>
@@ -1763,11 +1775,11 @@
       </c>
       <c r="E9" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>20</v>
@@ -1790,9 +1802,15 @@
       <c r="M9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
+      <c r="N9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q9" s="35"/>
       <c r="R9" s="35"/>
       <c r="S9" s="35"/>
@@ -1821,11 +1839,11 @@
       </c>
       <c r="E10" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>20</v>
@@ -1848,9 +1866,15 @@
       <c r="M10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
+      <c r="N10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q10" s="35"/>
       <c r="R10" s="35"/>
       <c r="S10" s="35"/>
@@ -1879,11 +1903,11 @@
       </c>
       <c r="E11" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>20</v>
@@ -1906,9 +1930,15 @@
       <c r="M11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
+      <c r="N11" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q11" s="35"/>
       <c r="R11" s="35"/>
       <c r="S11" s="35"/>
@@ -1937,11 +1967,11 @@
       </c>
       <c r="E12" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>20</v>
@@ -1964,9 +1994,15 @@
       <c r="M12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
+      <c r="N12" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q12" s="35"/>
       <c r="R12" s="35"/>
       <c r="S12" s="35"/>
@@ -1995,11 +2031,11 @@
       </c>
       <c r="E13" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>20</v>
@@ -2022,9 +2058,15 @@
       <c r="M13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
+      <c r="N13" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q13" s="35"/>
       <c r="R13" s="35"/>
       <c r="S13" s="35"/>
@@ -2053,11 +2095,11 @@
       </c>
       <c r="E14" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>20</v>
@@ -2080,9 +2122,15 @@
       <c r="M14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
+      <c r="N14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q14" s="35"/>
       <c r="R14" s="35"/>
       <c r="S14" s="35"/>
@@ -2111,7 +2159,7 @@
       </c>
       <c r="E15" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
@@ -2138,9 +2186,15 @@
       <c r="M15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
+      <c r="N15" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q15" s="35"/>
       <c r="R15" s="35"/>
       <c r="S15" s="35"/>
@@ -2169,11 +2223,11 @@
       </c>
       <c r="E16" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>20</v>
@@ -2196,9 +2250,15 @@
       <c r="M16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
+      <c r="N16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q16" s="35"/>
       <c r="R16" s="35"/>
       <c r="S16" s="35"/>
@@ -2227,11 +2287,11 @@
       </c>
       <c r="E17" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>20</v>
@@ -2254,9 +2314,15 @@
       <c r="M17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
+      <c r="N17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q17" s="35"/>
       <c r="R17" s="35"/>
       <c r="S17" s="35"/>
@@ -2289,7 +2355,7 @@
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>21</v>
@@ -2312,9 +2378,15 @@
       <c r="M18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
+      <c r="N18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q18" s="35"/>
       <c r="R18" s="35"/>
       <c r="S18" s="35"/>
@@ -2343,11 +2415,11 @@
       </c>
       <c r="E19" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G19" s="28" t="s">
         <v>20</v>
@@ -2370,9 +2442,15 @@
       <c r="M19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
+      <c r="N19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q19" s="35"/>
       <c r="R19" s="35"/>
       <c r="S19" s="35"/>
@@ -2405,7 +2483,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>20</v>
@@ -2428,9 +2506,15 @@
       <c r="M20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
+      <c r="N20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q20" s="35"/>
       <c r="R20" s="35"/>
       <c r="S20" s="35"/>
@@ -2459,11 +2543,11 @@
       </c>
       <c r="E21" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>20</v>
@@ -2486,9 +2570,15 @@
       <c r="M21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
+      <c r="N21" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q21" s="35"/>
       <c r="R21" s="35"/>
       <c r="S21" s="35"/>
@@ -2521,7 +2611,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>20</v>
@@ -2544,9 +2634,15 @@
       <c r="M22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
+      <c r="N22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q22" s="35"/>
       <c r="R22" s="35"/>
       <c r="S22" s="35"/>
@@ -2579,7 +2675,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>20</v>
@@ -2602,9 +2698,15 @@
       <c r="M23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
+      <c r="N23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q23" s="35"/>
       <c r="R23" s="35"/>
       <c r="S23" s="35"/>
@@ -2637,7 +2739,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>20</v>
@@ -2660,9 +2762,15 @@
       <c r="M24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
+      <c r="N24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q24" s="35"/>
       <c r="R24" s="35"/>
       <c r="S24" s="35"/>
@@ -2691,11 +2799,11 @@
       </c>
       <c r="E25" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>20</v>
@@ -2718,9 +2826,15 @@
       <c r="M25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
+      <c r="N25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q25" s="35"/>
       <c r="R25" s="35"/>
       <c r="S25" s="35"/>
@@ -2753,7 +2867,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>20</v>
@@ -2776,9 +2890,15 @@
       <c r="M26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
+      <c r="N26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q26" s="35"/>
       <c r="R26" s="35"/>
       <c r="S26" s="35"/>
@@ -2811,7 +2931,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>20</v>
@@ -2834,9 +2954,15 @@
       <c r="M27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
+      <c r="N27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q27" s="35"/>
       <c r="R27" s="35"/>
       <c r="S27" s="35"/>
@@ -2865,11 +2991,11 @@
       </c>
       <c r="E28" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>20</v>
@@ -2892,9 +3018,15 @@
       <c r="M28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
+      <c r="N28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q28" s="35"/>
       <c r="R28" s="35"/>
       <c r="S28" s="35"/>
@@ -2923,11 +3055,11 @@
       </c>
       <c r="E29" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>20</v>
@@ -2950,9 +3082,15 @@
       <c r="M29" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
+      <c r="N29" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q29" s="35"/>
       <c r="R29" s="35"/>
       <c r="S29" s="35"/>
@@ -2981,11 +3119,11 @@
       </c>
       <c r="E30" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>20</v>
@@ -3008,9 +3146,15 @@
       <c r="M30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
+      <c r="N30" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q30" s="35"/>
       <c r="R30" s="35"/>
       <c r="S30" s="35"/>
@@ -3043,7 +3187,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>20</v>
@@ -3066,9 +3210,15 @@
       <c r="M31" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
+      <c r="N31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q31" s="35"/>
       <c r="R31" s="35"/>
       <c r="S31" s="35"/>
@@ -3101,7 +3251,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G32" s="28" t="s">
         <v>20</v>
@@ -3124,9 +3274,15 @@
       <c r="M32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
+      <c r="N32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q32" s="35"/>
       <c r="R32" s="35"/>
       <c r="S32" s="35"/>
@@ -3155,11 +3311,11 @@
       </c>
       <c r="E33" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G33" s="28" t="s">
         <v>20</v>
@@ -3182,9 +3338,15 @@
       <c r="M33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
+      <c r="N33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q33" s="35"/>
       <c r="R33" s="35"/>
       <c r="S33" s="35"/>
@@ -3213,11 +3375,11 @@
       </c>
       <c r="E34" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G34" s="28" t="s">
         <v>20</v>
@@ -3240,9 +3402,15 @@
       <c r="M34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
+      <c r="N34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P34" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q34" s="35"/>
       <c r="R34" s="35"/>
       <c r="S34" s="35"/>
@@ -3271,11 +3439,11 @@
       </c>
       <c r="E35" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G35" s="28" t="s">
         <v>20</v>
@@ -3298,9 +3466,15 @@
       <c r="M35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
+      <c r="N35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q35" s="35"/>
       <c r="R35" s="35"/>
       <c r="S35" s="35"/>
@@ -3333,7 +3507,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>20</v>
@@ -3356,9 +3530,15 @@
       <c r="M36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
+      <c r="N36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q36" s="35"/>
       <c r="R36" s="35"/>
       <c r="S36" s="35"/>
@@ -3387,11 +3567,11 @@
       </c>
       <c r="E37" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G37" s="28" t="s">
         <v>20</v>
@@ -3414,9 +3594,15 @@
       <c r="M37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
+      <c r="N37" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q37" s="35"/>
       <c r="R37" s="35"/>
       <c r="S37" s="35"/>
@@ -3445,11 +3631,11 @@
       </c>
       <c r="E38" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G38" s="28" t="s">
         <v>20</v>
@@ -3472,9 +3658,15 @@
       <c r="M38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
+      <c r="N38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P38" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q38" s="35"/>
       <c r="R38" s="35"/>
       <c r="S38" s="35"/>
@@ -3507,7 +3699,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G39" s="28" t="s">
         <v>20</v>
@@ -3530,9 +3722,15 @@
       <c r="M39" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
+      <c r="N39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P39" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q39" s="35"/>
       <c r="R39" s="35"/>
       <c r="S39" s="35"/>
@@ -3565,7 +3763,7 @@
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G40" s="28" t="s">
         <v>20</v>
@@ -3588,9 +3786,15 @@
       <c r="M40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
+      <c r="N40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P40" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q40" s="35"/>
       <c r="R40" s="35"/>
       <c r="S40" s="35"/>
@@ -3623,7 +3827,7 @@
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G41" s="28" t="s">
         <v>20</v>
@@ -3646,9 +3850,15 @@
       <c r="M41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
+      <c r="N41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P41" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q41" s="35"/>
       <c r="R41" s="35"/>
       <c r="S41" s="35"/>
@@ -3677,11 +3887,11 @@
       </c>
       <c r="E42" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G42" s="28" t="s">
         <v>20</v>
@@ -3704,9 +3914,15 @@
       <c r="M42" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
+      <c r="N42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P42" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q42" s="35"/>
       <c r="R42" s="35"/>
       <c r="S42" s="35"/>
@@ -3735,11 +3951,11 @@
       </c>
       <c r="E43" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G43" s="28" t="s">
         <v>20</v>
@@ -3762,9 +3978,15 @@
       <c r="M43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N43" s="35"/>
-      <c r="O43" s="35"/>
-      <c r="P43" s="35"/>
+      <c r="N43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O43" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P43" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q43" s="35"/>
       <c r="R43" s="35"/>
       <c r="S43" s="35"/>
@@ -3797,7 +4019,7 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G44" s="28" t="s">
         <v>20</v>
@@ -3820,9 +4042,15 @@
       <c r="M44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N44" s="35"/>
-      <c r="O44" s="35"/>
-      <c r="P44" s="35"/>
+      <c r="N44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P44" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q44" s="35"/>
       <c r="R44" s="35"/>
       <c r="S44" s="35"/>
@@ -3851,11 +4079,11 @@
       </c>
       <c r="E45" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G45" s="28" t="s">
         <v>20</v>
@@ -3878,9 +4106,15 @@
       <c r="M45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N45" s="35"/>
-      <c r="O45" s="35"/>
-      <c r="P45" s="35"/>
+      <c r="N45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P45" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q45" s="35"/>
       <c r="R45" s="35"/>
       <c r="S45" s="35"/>
@@ -3913,7 +4147,7 @@
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G46" s="28" t="s">
         <v>20</v>
@@ -3936,9 +4170,15 @@
       <c r="M46" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N46" s="35"/>
-      <c r="O46" s="35"/>
-      <c r="P46" s="35"/>
+      <c r="N46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P46" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q46" s="35"/>
       <c r="R46" s="35"/>
       <c r="S46" s="35"/>
@@ -3967,11 +4207,11 @@
       </c>
       <c r="E47" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G47" s="28" t="s">
         <v>20</v>
@@ -3994,9 +4234,15 @@
       <c r="M47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N47" s="35"/>
-      <c r="O47" s="35"/>
-      <c r="P47" s="35"/>
+      <c r="N47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O47" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P47" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q47" s="35"/>
       <c r="R47" s="35"/>
       <c r="S47" s="35"/>
@@ -4025,11 +4271,11 @@
       </c>
       <c r="E48" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G48" s="28" t="s">
         <v>20</v>
@@ -4052,9 +4298,15 @@
       <c r="M48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N48" s="35"/>
-      <c r="O48" s="35"/>
-      <c r="P48" s="35"/>
+      <c r="N48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O48" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P48" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q48" s="35"/>
       <c r="R48" s="35"/>
       <c r="S48" s="35"/>
@@ -4083,11 +4335,11 @@
       </c>
       <c r="E49" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G49" s="28" t="s">
         <v>20</v>
@@ -4110,9 +4362,15 @@
       <c r="M49" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N49" s="35"/>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
+      <c r="N49" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P49" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q49" s="35"/>
       <c r="R49" s="35"/>
       <c r="S49" s="35"/>
@@ -4145,7 +4403,7 @@
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G50" s="28" t="s">
         <v>20</v>
@@ -4168,9 +4426,15 @@
       <c r="M50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N50" s="35"/>
-      <c r="O50" s="35"/>
-      <c r="P50" s="35"/>
+      <c r="N50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P50" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q50" s="35"/>
       <c r="R50" s="35"/>
       <c r="S50" s="35"/>
@@ -4199,11 +4463,11 @@
       </c>
       <c r="E51" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G51" s="28" t="s">
         <v>20</v>
@@ -4226,9 +4490,15 @@
       <c r="M51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N51" s="35"/>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
+      <c r="N51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P51" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q51" s="35"/>
       <c r="R51" s="35"/>
       <c r="S51" s="35"/>
@@ -4257,11 +4527,11 @@
       </c>
       <c r="E52" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G52" s="28" t="s">
         <v>20</v>
@@ -4284,9 +4554,15 @@
       <c r="M52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N52" s="35"/>
-      <c r="O52" s="35"/>
-      <c r="P52" s="35"/>
+      <c r="N52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P52" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q52" s="35"/>
       <c r="R52" s="35"/>
       <c r="S52" s="35"/>
@@ -4315,11 +4591,11 @@
       </c>
       <c r="E53" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G53" s="28" t="s">
         <v>20</v>
@@ -4342,9 +4618,15 @@
       <c r="M53" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N53" s="35"/>
-      <c r="O53" s="35"/>
-      <c r="P53" s="35"/>
+      <c r="N53" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P53" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q53" s="35"/>
       <c r="R53" s="35"/>
       <c r="S53" s="35"/>
@@ -4373,11 +4655,11 @@
       </c>
       <c r="E54" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G54" s="28" t="s">
         <v>20</v>
@@ -4400,9 +4682,15 @@
       <c r="M54" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N54" s="35"/>
-      <c r="O54" s="35"/>
-      <c r="P54" s="35"/>
+      <c r="N54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P54" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q54" s="35"/>
       <c r="R54" s="35"/>
       <c r="S54" s="35"/>
@@ -4435,7 +4723,7 @@
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G55" s="28" t="s">
         <v>20</v>
@@ -4458,9 +4746,15 @@
       <c r="M55" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N55" s="35"/>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
+      <c r="N55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P55" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q55" s="35"/>
       <c r="R55" s="35"/>
       <c r="S55" s="35"/>
@@ -4493,7 +4787,7 @@
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G56" s="28" t="s">
         <v>20</v>
@@ -4516,9 +4810,15 @@
       <c r="M56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N56" s="35"/>
-      <c r="O56" s="35"/>
-      <c r="P56" s="35"/>
+      <c r="N56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P56" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q56" s="35"/>
       <c r="R56" s="35"/>
       <c r="S56" s="35"/>
@@ -4547,11 +4847,11 @@
       </c>
       <c r="E57" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G57" s="28" t="s">
         <v>21</v>
@@ -4574,9 +4874,15 @@
       <c r="M57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N57" s="35"/>
-      <c r="O57" s="35"/>
-      <c r="P57" s="35"/>
+      <c r="N57" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P57" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q57" s="35"/>
       <c r="R57" s="35"/>
       <c r="S57" s="35"/>
@@ -4605,11 +4911,11 @@
       </c>
       <c r="E58" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G58" s="28" t="s">
         <v>20</v>
@@ -4632,9 +4938,15 @@
       <c r="M58" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N58" s="35"/>
-      <c r="O58" s="35"/>
-      <c r="P58" s="35"/>
+      <c r="N58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O58" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P58" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q58" s="35"/>
       <c r="R58" s="35"/>
       <c r="S58" s="35"/>
@@ -4663,11 +4975,11 @@
       </c>
       <c r="E59" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G59" s="28" t="s">
         <v>20</v>
@@ -4690,9 +5002,15 @@
       <c r="M59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
+      <c r="N59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P59" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q59" s="35"/>
       <c r="R59" s="35"/>
       <c r="S59" s="35"/>
@@ -4721,11 +5039,11 @@
       </c>
       <c r="E60" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G60" s="28" t="s">
         <v>20</v>
@@ -4748,9 +5066,15 @@
       <c r="M60" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N60" s="35"/>
-      <c r="O60" s="35"/>
-      <c r="P60" s="35"/>
+      <c r="N60" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P60" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q60" s="35"/>
       <c r="R60" s="35"/>
       <c r="S60" s="35"/>
@@ -4779,11 +5103,11 @@
       </c>
       <c r="E61" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G61" s="28" t="s">
         <v>20</v>
@@ -4806,9 +5130,15 @@
       <c r="M61" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N61" s="35"/>
-      <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
+      <c r="N61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O61" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P61" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q61" s="35"/>
       <c r="R61" s="35"/>
       <c r="S61" s="35"/>
@@ -4841,7 +5171,7 @@
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G62" s="28" t="s">
         <v>20</v>
@@ -4864,9 +5194,15 @@
       <c r="M62" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N62" s="35"/>
-      <c r="O62" s="35"/>
-      <c r="P62" s="35"/>
+      <c r="N62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P62" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q62" s="35"/>
       <c r="R62" s="35"/>
       <c r="S62" s="35"/>
@@ -4895,11 +5231,11 @@
       </c>
       <c r="E63" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G63" s="28" t="s">
         <v>20</v>
@@ -4922,9 +5258,15 @@
       <c r="M63" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N63" s="35"/>
-      <c r="O63" s="35"/>
-      <c r="P63" s="35"/>
+      <c r="N63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O63" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P63" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q63" s="35"/>
       <c r="R63" s="35"/>
       <c r="S63" s="35"/>
@@ -4957,7 +5299,7 @@
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G64" s="28" t="s">
         <v>20</v>
@@ -4980,9 +5322,15 @@
       <c r="M64" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N64" s="35"/>
-      <c r="O64" s="35"/>
-      <c r="P64" s="35"/>
+      <c r="N64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P64" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q64" s="35"/>
       <c r="R64" s="35"/>
       <c r="S64" s="35"/>
@@ -5011,11 +5359,11 @@
       </c>
       <c r="E65" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G65" s="28" t="s">
         <v>21</v>
@@ -5038,9 +5386,15 @@
       <c r="M65" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N65" s="35"/>
-      <c r="O65" s="35"/>
-      <c r="P65" s="35"/>
+      <c r="N65" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P65" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q65" s="35"/>
       <c r="R65" s="35"/>
       <c r="S65" s="35"/>
@@ -5073,7 +5427,7 @@
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G66" s="28" t="s">
         <v>20</v>
@@ -5096,9 +5450,15 @@
       <c r="M66" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N66" s="35"/>
-      <c r="O66" s="35"/>
-      <c r="P66" s="35"/>
+      <c r="N66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P66" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q66" s="35"/>
       <c r="R66" s="35"/>
       <c r="S66" s="35"/>
@@ -5131,7 +5491,7 @@
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G67" s="28" t="s">
         <v>20</v>
@@ -5154,9 +5514,15 @@
       <c r="M67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N67" s="35"/>
-      <c r="O67" s="35"/>
-      <c r="P67" s="35"/>
+      <c r="N67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P67" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q67" s="35"/>
       <c r="R67" s="35"/>
       <c r="S67" s="35"/>
@@ -5189,7 +5555,7 @@
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G68" s="28" t="s">
         <v>20</v>
@@ -5212,9 +5578,15 @@
       <c r="M68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N68" s="35"/>
-      <c r="O68" s="35"/>
-      <c r="P68" s="35"/>
+      <c r="N68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P68" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q68" s="35"/>
       <c r="R68" s="35"/>
       <c r="S68" s="35"/>
@@ -5243,11 +5615,11 @@
       </c>
       <c r="E69" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G69" s="28" t="s">
         <v>20</v>
@@ -5270,9 +5642,15 @@
       <c r="M69" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N69" s="35"/>
-      <c r="O69" s="35"/>
-      <c r="P69" s="35"/>
+      <c r="N69" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O69" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P69" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q69" s="35"/>
       <c r="R69" s="35"/>
       <c r="S69" s="35"/>
@@ -5301,7 +5679,7 @@
       </c>
       <c r="E70" s="26">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
@@ -5328,9 +5706,15 @@
       <c r="M70" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N70" s="35"/>
-      <c r="O70" s="35"/>
-      <c r="P70" s="35"/>
+      <c r="N70" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O70" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P70" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q70" s="35"/>
       <c r="R70" s="35"/>
       <c r="S70" s="35"/>
@@ -5363,7 +5747,7 @@
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G71" s="28" t="s">
         <v>20</v>
@@ -5386,9 +5770,15 @@
       <c r="M71" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N71" s="35"/>
-      <c r="O71" s="35"/>
-      <c r="P71" s="35"/>
+      <c r="N71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P71" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q71" s="35"/>
       <c r="R71" s="35"/>
       <c r="S71" s="35"/>
@@ -5417,11 +5807,11 @@
       </c>
       <c r="E72" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G72" s="28" t="s">
         <v>20</v>
@@ -5444,9 +5834,15 @@
       <c r="M72" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N72" s="35"/>
-      <c r="O72" s="35"/>
-      <c r="P72" s="35"/>
+      <c r="N72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O72" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P72" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q72" s="35"/>
       <c r="R72" s="35"/>
       <c r="S72" s="35"/>
@@ -5479,7 +5875,7 @@
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G73" s="28" t="s">
         <v>20</v>
@@ -5502,9 +5898,15 @@
       <c r="M73" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N73" s="35"/>
-      <c r="O73" s="35"/>
-      <c r="P73" s="35"/>
+      <c r="N73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P73" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q73" s="35"/>
       <c r="R73" s="35"/>
       <c r="S73" s="35"/>
@@ -5533,11 +5935,11 @@
       </c>
       <c r="E74" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G74" s="28" t="s">
         <v>20</v>
@@ -5560,9 +5962,15 @@
       <c r="M74" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N74" s="35"/>
-      <c r="O74" s="35"/>
-      <c r="P74" s="35"/>
+      <c r="N74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O74" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P74" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q74" s="35"/>
       <c r="R74" s="35"/>
       <c r="S74" s="35"/>
@@ -5595,7 +6003,7 @@
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G75" s="28" t="s">
         <v>20</v>
@@ -5618,9 +6026,15 @@
       <c r="M75" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N75" s="35"/>
-      <c r="O75" s="35"/>
-      <c r="P75" s="35"/>
+      <c r="N75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P75" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q75" s="35"/>
       <c r="R75" s="35"/>
       <c r="S75" s="35"/>
@@ -5649,11 +6063,11 @@
       </c>
       <c r="E76" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G76" s="28" t="s">
         <v>20</v>
@@ -5676,9 +6090,15 @@
       <c r="M76" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N76" s="35"/>
-      <c r="O76" s="35"/>
-      <c r="P76" s="35"/>
+      <c r="N76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O76" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P76" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q76" s="35"/>
       <c r="R76" s="35"/>
       <c r="S76" s="35"/>
@@ -5707,11 +6127,11 @@
       </c>
       <c r="E77" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F77" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G77" s="28" t="s">
         <v>20</v>
@@ -5734,9 +6154,15 @@
       <c r="M77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N77" s="35"/>
-      <c r="O77" s="35"/>
-      <c r="P77" s="35"/>
+      <c r="N77" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O77" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P77" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q77" s="35"/>
       <c r="R77" s="35"/>
       <c r="S77" s="35"/>
@@ -5765,11 +6191,11 @@
       </c>
       <c r="E78" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F78" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G78" s="28" t="s">
         <v>20</v>
@@ -5792,9 +6218,15 @@
       <c r="M78" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N78" s="35"/>
-      <c r="O78" s="35"/>
-      <c r="P78" s="35"/>
+      <c r="N78" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O78" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P78" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q78" s="35"/>
       <c r="R78" s="35"/>
       <c r="S78" s="35"/>
@@ -5827,7 +6259,7 @@
       </c>
       <c r="F79" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G79" s="28" t="s">
         <v>20</v>
@@ -5850,9 +6282,15 @@
       <c r="M79" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N79" s="35"/>
-      <c r="O79" s="35"/>
-      <c r="P79" s="35"/>
+      <c r="N79" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O79" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P79" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q79" s="35"/>
       <c r="R79" s="35"/>
       <c r="S79" s="35"/>
@@ -5885,7 +6323,7 @@
       </c>
       <c r="F80" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G80" s="28" t="s">
         <v>20</v>
@@ -5908,9 +6346,15 @@
       <c r="M80" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N80" s="35"/>
-      <c r="O80" s="35"/>
-      <c r="P80" s="35"/>
+      <c r="N80" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O80" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P80" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q80" s="35"/>
       <c r="R80" s="35"/>
       <c r="S80" s="35"/>
@@ -5939,11 +6383,11 @@
       </c>
       <c r="E81" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G81" s="28" t="s">
         <v>20</v>
@@ -5966,9 +6410,15 @@
       <c r="M81" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N81" s="35"/>
-      <c r="O81" s="35"/>
-      <c r="P81" s="35"/>
+      <c r="N81" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O81" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P81" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q81" s="35"/>
       <c r="R81" s="35"/>
       <c r="S81" s="35"/>
@@ -6001,7 +6451,7 @@
       </c>
       <c r="F82" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G82" s="28" t="s">
         <v>20</v>
@@ -6024,9 +6474,15 @@
       <c r="M82" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N82" s="35"/>
-      <c r="O82" s="35"/>
-      <c r="P82" s="35"/>
+      <c r="N82" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O82" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P82" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q82" s="35"/>
       <c r="R82" s="35"/>
       <c r="S82" s="35"/>
@@ -6055,11 +6511,11 @@
       </c>
       <c r="E83" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G83" s="28" t="s">
         <v>20</v>
@@ -6082,9 +6538,15 @@
       <c r="M83" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N83" s="35"/>
-      <c r="O83" s="35"/>
-      <c r="P83" s="35"/>
+      <c r="N83" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O83" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P83" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q83" s="35"/>
       <c r="R83" s="35"/>
       <c r="S83" s="35"/>
@@ -6117,7 +6579,7 @@
       </c>
       <c r="F84" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G84" s="28" t="s">
         <v>20</v>
@@ -6140,9 +6602,15 @@
       <c r="M84" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N84" s="35"/>
-      <c r="O84" s="35"/>
-      <c r="P84" s="35"/>
+      <c r="N84" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O84" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P84" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q84" s="35"/>
       <c r="R84" s="35"/>
       <c r="S84" s="35"/>
@@ -6171,11 +6639,11 @@
       </c>
       <c r="E85" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F85" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G85" s="28" t="s">
         <v>20</v>
@@ -6198,9 +6666,15 @@
       <c r="M85" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N85" s="35"/>
-      <c r="O85" s="35"/>
-      <c r="P85" s="35"/>
+      <c r="N85" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O85" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P85" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q85" s="35"/>
       <c r="R85" s="35"/>
       <c r="S85" s="35"/>
@@ -6229,11 +6703,11 @@
       </c>
       <c r="E86" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F86" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G86" s="28" t="s">
         <v>20</v>
@@ -6256,9 +6730,15 @@
       <c r="M86" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N86" s="35"/>
-      <c r="O86" s="35"/>
-      <c r="P86" s="35"/>
+      <c r="N86" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O86" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P86" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q86" s="35"/>
       <c r="R86" s="35"/>
       <c r="S86" s="35"/>
